--- a/Data/Transitions/19591966Translation.xlsx
+++ b/Data/Transitions/19591966Translation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="636">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="635">
   <si>
     <t>id</t>
   </si>
@@ -466,7 +466,7 @@
     <t>{241.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 0.6801219689269639}</t>
+    <t>{242.0: 1.0}</t>
   </si>
   <si>
     <t>{243.0: 0.9888238424693986}</t>
@@ -667,7 +667,7 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 0.31987803107303614}</t>
+    <t>{320.0: 1.0}</t>
   </si>
   <si>
     <t>{398.0: 1.0}</t>
@@ -1736,9 +1736,6 @@
   </si>
   <si>
     <t>{237.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{320.0: 1.0}</t>
   </si>
   <si>
     <t>{243.0: 1.0}</t>
@@ -3921,7 +3918,7 @@
         <v>150</v>
       </c>
       <c r="C149" t="s">
-        <v>574</v>
+        <v>150</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -3932,7 +3929,7 @@
         <v>151</v>
       </c>
       <c r="C150" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -3943,7 +3940,7 @@
         <v>152</v>
       </c>
       <c r="C151" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -4130,7 +4127,7 @@
         <v>169</v>
       </c>
       <c r="C168" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -4196,7 +4193,7 @@
         <v>175</v>
       </c>
       <c r="C174" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -4339,7 +4336,7 @@
         <v>188</v>
       </c>
       <c r="C187" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -4350,7 +4347,7 @@
         <v>189</v>
       </c>
       <c r="C188" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -4515,7 +4512,7 @@
         <v>204</v>
       </c>
       <c r="C203" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -4537,7 +4534,7 @@
         <v>206</v>
       </c>
       <c r="C205" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -4658,7 +4655,7 @@
         <v>217</v>
       </c>
       <c r="C216" t="s">
-        <v>574</v>
+        <v>217</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -4713,7 +4710,7 @@
         <v>222</v>
       </c>
       <c r="C221" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -4878,7 +4875,7 @@
         <v>237</v>
       </c>
       <c r="C236" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -4933,7 +4930,7 @@
         <v>242</v>
       </c>
       <c r="C241" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -5032,7 +5029,7 @@
         <v>251</v>
       </c>
       <c r="C250" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -5098,7 +5095,7 @@
         <v>257</v>
       </c>
       <c r="C256" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -5164,7 +5161,7 @@
         <v>263</v>
       </c>
       <c r="C262" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -5175,7 +5172,7 @@
         <v>264</v>
       </c>
       <c r="C263" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -5186,7 +5183,7 @@
         <v>265</v>
       </c>
       <c r="C264" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -5340,7 +5337,7 @@
         <v>279</v>
       </c>
       <c r="C278" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -5395,7 +5392,7 @@
         <v>284</v>
       </c>
       <c r="C283" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -5483,7 +5480,7 @@
         <v>292</v>
       </c>
       <c r="C291" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -5494,7 +5491,7 @@
         <v>293</v>
       </c>
       <c r="C292" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -5659,7 +5656,7 @@
         <v>308</v>
       </c>
       <c r="C307" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -5692,7 +5689,7 @@
         <v>311</v>
       </c>
       <c r="C310" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -5714,7 +5711,7 @@
         <v>313</v>
       </c>
       <c r="C312" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -5758,7 +5755,7 @@
         <v>317</v>
       </c>
       <c r="C316" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -5780,7 +5777,7 @@
         <v>319</v>
       </c>
       <c r="C318" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -5824,7 +5821,7 @@
         <v>323</v>
       </c>
       <c r="C322" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -5879,7 +5876,7 @@
         <v>328</v>
       </c>
       <c r="C327" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -6033,7 +6030,7 @@
         <v>342</v>
       </c>
       <c r="C341" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -6044,7 +6041,7 @@
         <v>343</v>
       </c>
       <c r="C342" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -6088,7 +6085,7 @@
         <v>347</v>
       </c>
       <c r="C346" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -6110,7 +6107,7 @@
         <v>349</v>
       </c>
       <c r="C348" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -6121,7 +6118,7 @@
         <v>350</v>
       </c>
       <c r="C349" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -6220,7 +6217,7 @@
         <v>359</v>
       </c>
       <c r="C358" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -6330,7 +6327,7 @@
         <v>369</v>
       </c>
       <c r="C368" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="369" spans="1:3">
@@ -6440,7 +6437,7 @@
         <v>379</v>
       </c>
       <c r="C378" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="379" spans="1:3">
@@ -6451,7 +6448,7 @@
         <v>380</v>
       </c>
       <c r="C379" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="380" spans="1:3">
@@ -6462,7 +6459,7 @@
         <v>381</v>
       </c>
       <c r="C380" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="381" spans="1:3">
@@ -6616,7 +6613,7 @@
         <v>395</v>
       </c>
       <c r="C394" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="395" spans="1:3">
@@ -6627,7 +6624,7 @@
         <v>396</v>
       </c>
       <c r="C395" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="396" spans="1:3">
@@ -6847,7 +6844,7 @@
         <v>416</v>
       </c>
       <c r="C415" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="416" spans="1:3">
@@ -7155,7 +7152,7 @@
         <v>444</v>
       </c>
       <c r="C443" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="444" spans="1:3">
@@ -7210,7 +7207,7 @@
         <v>449</v>
       </c>
       <c r="C448" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="449" spans="1:3">
@@ -7232,7 +7229,7 @@
         <v>451</v>
       </c>
       <c r="C450" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="451" spans="1:3">
@@ -7254,7 +7251,7 @@
         <v>453</v>
       </c>
       <c r="C452" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="453" spans="1:3">
@@ -7287,7 +7284,7 @@
         <v>456</v>
       </c>
       <c r="C455" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="456" spans="1:3">
@@ -7309,7 +7306,7 @@
         <v>458</v>
       </c>
       <c r="C457" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="458" spans="1:3">
@@ -7320,7 +7317,7 @@
         <v>459</v>
       </c>
       <c r="C458" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="459" spans="1:3">
@@ -7331,7 +7328,7 @@
         <v>460</v>
       </c>
       <c r="C459" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="460" spans="1:3">
@@ -7364,7 +7361,7 @@
         <v>463</v>
       </c>
       <c r="C462" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="463" spans="1:3">
@@ -7584,7 +7581,7 @@
         <v>483</v>
       </c>
       <c r="C482" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="483" spans="1:3">
@@ -7628,7 +7625,7 @@
         <v>487</v>
       </c>
       <c r="C486" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="487" spans="1:3">
@@ -7661,7 +7658,7 @@
         <v>490</v>
       </c>
       <c r="C489" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="490" spans="1:3">
@@ -7782,7 +7779,7 @@
         <v>501</v>
       </c>
       <c r="C500" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="501" spans="1:3">
@@ -7914,7 +7911,7 @@
         <v>513</v>
       </c>
       <c r="C512" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="513" spans="1:3">
@@ -7980,7 +7977,7 @@
         <v>519</v>
       </c>
       <c r="C518" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="519" spans="1:3">
@@ -8068,7 +8065,7 @@
         <v>527</v>
       </c>
       <c r="C526" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="527" spans="1:3">
@@ -8090,7 +8087,7 @@
         <v>529</v>
       </c>
       <c r="C528" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="529" spans="1:3">
@@ -8112,7 +8109,7 @@
         <v>531</v>
       </c>
       <c r="C530" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="531" spans="1:3">
@@ -8123,7 +8120,7 @@
         <v>532</v>
       </c>
       <c r="C531" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="532" spans="1:3">
@@ -8145,7 +8142,7 @@
         <v>534</v>
       </c>
       <c r="C533" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="534" spans="1:3">
@@ -8167,7 +8164,7 @@
         <v>536</v>
       </c>
       <c r="C535" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="536" spans="1:3">
